--- a/data/sliders.xlsx
+++ b/data/sliders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Les Timbeau\git-timbhaut\debtwatch\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2415E-FB1A-45FA-ABC3-9C21A055E5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4BFB67-4210-4E1A-811E-DB27FB7D3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>Tax multiplier</t>
   </si>
   <si>
-    <t>Noise autoregressitvity</t>
-  </si>
-  <si>
     <t>Output gap autoregressivity</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>Standard error of noise added each year to output gap (%)</t>
   </si>
   <si>
-    <t>Autoregressitvity of noise added each year to output gap (between -1 and +1)</t>
-  </si>
-  <si>
     <t>Long term gap between interest rate (r) and growth rate (g)</t>
   </si>
   <si>
@@ -688,6 +682,12 @@
   </si>
   <si>
     <t>La simulation s’arrête à cette année</t>
+  </si>
+  <si>
+    <t>Noise autocorrelation</t>
+  </si>
+  <si>
+    <t>Autorcorrelation of noise added each year to output gap (between -1 and +1)</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1045,10 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,10 +1106,10 @@
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -1118,7 +1118,7 @@
         <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" s="1" t="str">
         <f>"["&amp;B2&amp;"] "&amp;J2</f>
@@ -1134,13 +1134,13 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>86</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L44" si="0">"["&amp;B4&amp;"] "&amp;J4</f>
@@ -1209,10 +1209,10 @@
         <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1252,10 +1252,10 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1298,7 +1298,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1341,7 +1341,7 @@
         <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1384,7 +1384,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1403,7 +1403,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
         <v>95</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1467,10 +1467,10 @@
         <v>100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1510,10 +1510,10 @@
         <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -1641,10 +1641,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1663,10 +1663,10 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1706,7 +1706,7 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
         <v>101</v>
@@ -1727,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1749,7 +1749,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
         <v>102</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1838,7 +1838,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E20">
         <v>0.7</v>
@@ -1859,7 +1859,7 @@
         <v>52</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1878,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -1899,10 +1899,10 @@
         <v>100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1942,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1964,7 +1964,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -1985,10 +1985,10 @@
         <v>100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2007,10 +2007,10 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -2028,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2050,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
         <v>107</v>
@@ -2071,10 +2071,10 @@
         <v>100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2136,10 +2136,10 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2179,7 +2179,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s">
         <v>109</v>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2268,7 +2268,7 @@
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>[ogn_ar] Autoregressitvity of noise added each year to output gap (between -1 and +1)</v>
+        <v>[ogn_ar] Autorcorrelation of noise added each year to output gap (between -1 and +1)</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2308,10 +2308,10 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2354,7 +2354,7 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32">
         <v>50</v>
@@ -2375,7 +2375,7 @@
         <v>60</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2394,10 +2394,10 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>0.2</v>
@@ -2415,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2440,7 +2440,7 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34">
         <v>0.1</v>
@@ -2458,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2483,7 +2483,7 @@
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <v>0.4</v>
@@ -2504,7 +2504,7 @@
         <v>53</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2523,10 +2523,10 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2544,10 +2544,10 @@
         <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2569,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <v>0.01</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H37">
         <v>5.0000000000000001E-3</v>
@@ -2587,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2612,7 +2612,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -2633,7 +2633,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2652,10 +2652,10 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>0.27</v>
@@ -2673,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2695,10 +2695,10 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40">
         <v>0.33</v>
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2738,10 +2738,10 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41">
         <v>0.13</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2781,10 +2781,10 @@
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E42">
         <v>2007</v>
@@ -2802,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2824,10 +2824,10 @@
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <v>2022</v>
@@ -2845,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2888,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="0"/>

--- a/data/sliders.xlsx
+++ b/data/sliders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4BFB67-4210-4E1A-811E-DB27FB7D3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2476A7-858D-40BF-BE53-460488F74349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
+    <workbookView xWindow="1280" yWindow="1250" windowWidth="27150" windowHeight="18170" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1045,10 +1045,10 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>100</v>

--- a/data/sliders.xlsx
+++ b/data/sliders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2476A7-858D-40BF-BE53-460488F74349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA67979-6C76-4039-9451-BAA2F2BE472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1250" windowWidth="27150" windowHeight="18170" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -688,6 +688,24 @@
   </si>
   <si>
     <t>Autorcorrelation of noise added each year to output gap (between -1 and +1)</t>
+  </si>
+  <si>
+    <t>ameco</t>
+  </si>
+  <si>
+    <t>Date de publication de la base AMECO</t>
+  </si>
+  <si>
+    <t>AMECO database publication date</t>
+  </si>
+  <si>
+    <t>Version d’AMECO</t>
+  </si>
+  <si>
+    <t>AMECO vintage</t>
+  </si>
+  <si>
+    <t>pick_str</t>
   </si>
 </sst>
 </file>
@@ -1042,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D23511C-2BE9-49F3-83A7-D2CB923AA784}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,11 +1190,11 @@
         <v>128</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L44" si="0">"["&amp;B4&amp;"] "&amp;J4</f>
+        <f t="shared" ref="L4:L45" si="0">"["&amp;B4&amp;"] "&amp;J4</f>
         <v>[draws] Nombre de tirages pour les simulations de Montecarlo</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" ref="M4:M44" si="1">"["&amp;B4&amp;"] "&amp;K4</f>
+        <f t="shared" ref="M4:M45" si="1">"["&amp;B4&amp;"] "&amp;K4</f>
         <v>[draws] Number of draws used in Montecarlo simulation</v>
       </c>
     </row>
@@ -2830,13 +2848,13 @@
         <v>121</v>
       </c>
       <c r="E43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F43">
         <v>2021</v>
       </c>
       <c r="G43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2900,6 +2918,38 @@
       <c r="M44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>[end_year] Simulation stops at this year</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="str">
+        <f>+"11/2021"</f>
+        <v>11/2021</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[ameco] Date de publication de la base AMECO</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>[ameco] AMECO database publication date</v>
       </c>
     </row>
   </sheetData>

--- a/data/sliders.xlsx
+++ b/data/sliders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatchr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA67979-6C76-4039-9451-BAA2F2BE472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76000F2F-A621-4649-89D6-C04DFCDB35EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="28800" windowHeight="15370" xr2:uid="{75A1F0D0-E46F-4BFC-8FE9-81ECF7FD846E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1063,10 +1063,10 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1298,7 +1298,7 @@
         <v>92</v>
       </c>
       <c r="E7">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2934,8 +2934,8 @@
         <v>222</v>
       </c>
       <c r="E45" t="str">
-        <f>+"11/2021"</f>
-        <v>11/2021</v>
+        <f>+"5/2022"</f>
+        <v>5/2022</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>219</v>
